--- a/benchMarkConditionVars.xlsx
+++ b/benchMarkConditionVars.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="39">
   <si>
     <r>
       <rPr>
@@ -163,6 +163,9 @@
       </rPr>
       <t>gcc -o condvar condvar.c -lpthread</t>
     </r>
+  </si>
+  <si>
+    <t>SPEEDRUN</t>
   </si>
   <si>
     <t xml:space="preserve">_x001d_COREs</t>
@@ -333,6 +336,9 @@
       </rPr>
       <t>gcc -o bug1fixed bug1fixed.c -lpthread</t>
     </r>
+  </si>
+  <si>
+    <t>_x0008_SPEEDRUN</t>
   </si>
   <si>
     <r>
@@ -769,11 +775,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="529301692"/>
-        <c:axId val="1750882965"/>
+        <c:axId val="1925146821"/>
+        <c:axId val="2079035287"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="529301692"/>
+        <c:axId val="1925146821"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,10 +831,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1750882965"/>
+        <c:crossAx val="2079035287"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1750882965"/>
+        <c:axId val="2079035287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10005.0"/>
@@ -904,7 +910,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529301692"/>
+        <c:crossAx val="1925146821"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1053,6 +1059,24 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>condvar!$A$29:$A$32</c:f>
@@ -1066,11 +1090,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1534044328"/>
-        <c:axId val="1972186685"/>
+        <c:axId val="1573932627"/>
+        <c:axId val="1344425696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1534044328"/>
+        <c:axId val="1573932627"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,10 +1146,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1972186685"/>
+        <c:crossAx val="1344425696"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1972186685"/>
+        <c:axId val="1344425696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +1224,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1534044328"/>
+        <c:crossAx val="1573932627"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1227,6 +1251,380 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Speedrun</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>condvar!$F$29:$F$32</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>condvar!$G$29:$G$32</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>usr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>condvar!$F$29:$F$32</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>condvar!$H$29:$H$32</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>sys</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FBBC04"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>condvar!$F$29:$F$32</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>condvar!$I$29:$I$32</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="116926318"/>
+        <c:axId val="642018099"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="116926318"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>COREs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642018099"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="642018099"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116926318"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
@@ -1321,11 +1719,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="162837115"/>
-        <c:axId val="114282503"/>
+        <c:axId val="271166239"/>
+        <c:axId val="93406436"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162837115"/>
+        <c:axId val="271166239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,10 +1775,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114282503"/>
+        <c:crossAx val="93406436"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114282503"/>
+        <c:axId val="93406436"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10008.0"/>
@@ -1456,7 +1854,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162837115"/>
+        <c:crossAx val="271166239"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1482,7 +1880,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
@@ -1636,11 +2034,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="996947849"/>
-        <c:axId val="1390595501"/>
+        <c:axId val="1320339133"/>
+        <c:axId val="499709935"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="996947849"/>
+        <c:axId val="1320339133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1692,10 +2090,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1390595501"/>
+        <c:crossAx val="499709935"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1390595501"/>
+        <c:axId val="499709935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +2168,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="996947849"/>
+        <c:crossAx val="1320339133"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1796,7 +2194,375 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Speedrun</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'bug1'!$F$29:$F$32</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'bug1'!$G$29:$G$32</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>sys</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'bug1'!$F$29:$F$32</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'bug1'!$H$29:$H$32</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>usr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FBBC04"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'bug1'!$F$29:$F$32</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'bug1'!$I$29:$I$32</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="279494207"/>
+        <c:axId val="1334450174"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="279494207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>COREs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1334450174"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1334450174"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279494207"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
@@ -1886,11 +2652,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="954062088"/>
-        <c:axId val="925277167"/>
+        <c:axId val="1322767908"/>
+        <c:axId val="923412258"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="954062088"/>
+        <c:axId val="1322767908"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,10 +2708,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="925277167"/>
+        <c:crossAx val="923412258"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="925277167"/>
+        <c:axId val="923412258"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1250.0"/>
@@ -2021,7 +2787,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="954062088"/>
+        <c:crossAx val="1322767908"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2047,7 +2813,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
@@ -2197,11 +2963,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1292301502"/>
-        <c:axId val="1864627535"/>
+        <c:axId val="1620931023"/>
+        <c:axId val="1114110604"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1292301502"/>
+        <c:axId val="1620931023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,10 +3019,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1864627535"/>
+        <c:crossAx val="1114110604"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1864627535"/>
+        <c:axId val="1114110604"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,7 +3097,375 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1292301502"/>
+        <c:crossAx val="1620931023"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Speedrun</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'bug4'!$F$29:$F$32</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'bug4'!$G$29:$G$32</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>usr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'bug4'!$F$29:$F$32</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'bug4'!$H$29:$H$32</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>sys</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FBBC04"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'bug4'!$F$29:$F$32</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'bug4'!$I$29:$I$32</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="677553735"/>
+        <c:axId val="1754560368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="677553735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>COREs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1754560368"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1754560368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="677553735"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2409,6 +3543,31 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Biểu đồ"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2424,7 +3583,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Biểu đồ"/>
+        <xdr:cNvPr id="4" name="Chart 4" title="Biểu đồ"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2449,7 +3608,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Biểu đồ"/>
+        <xdr:cNvPr id="5" name="Chart 5" title="Biểu đồ"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2459,6 +3618,31 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 6" title="Biểu đồ"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2479,7 +3663,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5" title="Biểu đồ"/>
+        <xdr:cNvPr id="7" name="Chart 7" title="Biểu đồ"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2504,7 +3688,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 6" title="Biểu đồ"/>
+        <xdr:cNvPr id="8" name="Chart 8" title="Biểu đồ"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2514,6 +3698,31 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 9" title="Biểu đồ"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3076,7 +4285,7 @@
         <v>3.0</v>
       </c>
       <c r="D16" s="12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3087,7 +4296,7 @@
         <v>10006.0</v>
       </c>
       <c r="I16" s="12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J16" s="12">
         <v>3.0</v>
@@ -3106,7 +4315,7 @@
         <v>3.0</v>
       </c>
       <c r="D17" s="12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -3117,7 +4326,7 @@
         <v>10015.0</v>
       </c>
       <c r="I17" s="12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" s="12">
         <v>3.0</v>
@@ -3136,7 +4345,7 @@
         <v>3.0</v>
       </c>
       <c r="D18" s="12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -3147,7 +4356,7 @@
         <v>10005.0</v>
       </c>
       <c r="I18" s="12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J18" s="12">
         <v>3.0</v>
@@ -3166,7 +4375,7 @@
         <v>3.0</v>
       </c>
       <c r="D19" s="12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -3177,7 +4386,7 @@
         <v>10007.0</v>
       </c>
       <c r="I19" s="12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J19" s="12">
         <v>4.0</v>
@@ -3199,7 +4408,7 @@
       </c>
       <c r="D20" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -3212,7 +4421,7 @@
       </c>
       <c r="I20" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="10">
         <f t="shared" si="4"/>
@@ -3296,7 +4505,9 @@
         <v>16</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -3320,22 +4531,30 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -3354,10 +4573,18 @@
         <v>1.0</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="F29" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>1.0</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -3373,13 +4600,23 @@
         <v>3.0</v>
       </c>
       <c r="D30" s="12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="F30" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" ref="G30:G32" si="5">10005/B30</f>
+        <v>0.9998750781</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" ref="H30:H31" si="6">2/C30</f>
+        <v>0.6666666667</v>
+      </c>
+      <c r="I30" s="12">
+        <v>1.0</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -3398,10 +4635,21 @@
         <v>0.75</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="F31" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="5"/>
+        <v>0.9994006593</v>
+      </c>
+      <c r="H31" s="12">
+        <f t="shared" si="6"/>
+        <v>0.8888888889</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" ref="I31:I32" si="7">1/D31</f>
+        <v>1.333333333</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -3414,16 +4662,26 @@
         <v>10008.25</v>
       </c>
       <c r="C32" s="12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D32" s="12">
         <v>3.25</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="F32" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="5"/>
+        <v>0.9996752679</v>
+      </c>
+      <c r="H32" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="7"/>
+        <v>0.3076923077</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -3461,12 +4719,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -3488,10 +4746,10 @@
       <c r="J2" s="6"/>
       <c r="K2" s="2"/>
       <c r="L2" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -3523,10 +4781,10 @@
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -3752,12 +5010,12 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="13"/>
@@ -4049,10 +5307,12 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -4076,22 +5336,30 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -4110,10 +5378,18 @@
         <v>4.0</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="F29" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>1.0</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -4132,10 +5408,21 @@
         <v>1.25</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="F30" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" ref="G30:G32" si="5">10009/B30</f>
+        <v>0.999875128</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" ref="H30:H32" si="6">1/2.75</f>
+        <v>0.3636363636</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" ref="I30:I32" si="7">4/D30</f>
+        <v>3.2</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -4154,10 +5441,21 @@
         <v>1.75</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="F31" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="5"/>
+        <v>0.9997752528</v>
+      </c>
+      <c r="H31" s="12">
+        <f t="shared" si="6"/>
+        <v>0.3636363636</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" si="7"/>
+        <v>2.285714286</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -4176,10 +5474,21 @@
         <v>3.5</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="F32" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="5"/>
+        <v>1.000049958</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" si="6"/>
+        <v>0.3636363636</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="7"/>
+        <v>1.142857143</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -4218,12 +5527,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -4245,10 +5554,10 @@
       <c r="J2" s="6"/>
       <c r="K2" s="2"/>
       <c r="L2" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -4280,10 +5589,10 @@
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -4509,12 +5818,12 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="13"/>
@@ -4806,10 +6115,12 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -4833,22 +6144,30 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -4867,10 +6186,18 @@
         <v>10.0</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="F29" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>1.0</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -4889,10 +6216,21 @@
         <v>1.0</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="F30" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" ref="G30:G32" si="5">1253/B30</f>
+        <v>0.982745098</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" ref="H30:H32" si="6">192/C30</f>
+        <v>0.9721518987</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" ref="I30:I32" si="7">10/D30</f>
+        <v>10</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -4911,10 +6249,21 @@
         <v>6.0</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="F31" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="5"/>
+        <v>0.9768076398</v>
+      </c>
+      <c r="H31" s="12">
+        <f t="shared" si="6"/>
+        <v>0.978343949</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" si="7"/>
+        <v>1.666666667</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -4933,27 +6282,38 @@
         <v>1.0</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="F32" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="5"/>
+        <v>0.9666345227</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" si="6"/>
+        <v>0.9612015019</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
     <mergeCell ref="L3:L24"/>
     <mergeCell ref="M3:M24"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
